--- a/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
+++ b/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6E88BC-BF8B-4943-AD25-0A854E634AEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A539D7C4-F0E1-463D-A8F5-858E1B765EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>dcp0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>l2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,11 +71,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dcp0+fc0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>l10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113dcp0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113dcpfc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,9 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -406,141 +419,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.37909999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>0.37909999999999999</v>
-      </c>
-      <c r="C1">
-        <v>0.37909999999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.21679999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>0.21679999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.21679999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.15759999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0.15759999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.15759999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.12</v>
-      </c>
-      <c r="C4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.51629999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0.51629999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.51629999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.42349999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>0.42349999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.42349999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.33289999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="C7">
-        <v>0.33289999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.90559999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0.95</v>
-      </c>
-      <c r="C8">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
-        <v>0.90559999999999996</v>
-      </c>
-      <c r="C9">
-        <v>0.90559999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.69750000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B13" s="2">
+        <v>0.9415</v>
+      </c>
+      <c r="C13" s="1">
+        <v>93.98</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
+++ b/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A539D7C4-F0E1-463D-A8F5-858E1B765EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D22F8-B08E-49FD-B1C8-424AF3E2DBE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>l2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>112dcp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -430,7 +434,7 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +444,11 @@
       <c r="C1" s="1">
         <v>0.37909999999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -451,8 +458,11 @@
       <c r="C2" s="1">
         <v>0.21679999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -462,8 +472,11 @@
       <c r="C3" s="1">
         <v>0.15759999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -473,8 +486,11 @@
       <c r="C4" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -484,8 +500,11 @@
       <c r="C5" s="1">
         <v>0.51629999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,8 +514,11 @@
       <c r="C6" s="1">
         <v>0.42349999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -506,8 +528,11 @@
       <c r="C7" s="1">
         <v>0.33289999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -517,8 +542,11 @@
       <c r="C8" s="1">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -528,8 +556,11 @@
       <c r="C9" s="1">
         <v>0.90559999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -538,7 +569,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -548,8 +579,11 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -560,7 +594,7 @@
         <v>0.69750000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>

--- a/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
+++ b/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D22F8-B08E-49FD-B1C8-424AF3E2DBE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B6346-69CC-4D9B-B130-90EDC560D1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>l2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>112dcp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +430,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -593,6 +597,9 @@
       <c r="C12" s="2">
         <v>0.69750000000000001</v>
       </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -603,6 +610,9 @@
       </c>
       <c r="C13" s="1">
         <v>93.98</v>
+      </c>
+      <c r="D13">
+        <v>94.41</v>
       </c>
     </row>
   </sheetData>

--- a/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
+++ b/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02B6346-69CC-4D9B-B130-90EDC560D1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74276A-FC38-4E61-8B0B-19747953FCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="600" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>l2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>acc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>l10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,15 +83,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>112dcp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>112dcp1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>dcp75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,6 +151,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -427,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -438,7 +443,7 @@
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +456,17 @@
       <c r="D1">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>0.45</v>
+      </c>
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,8 +479,17 @@
       <c r="D2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0.35</v>
+      </c>
+      <c r="F2">
+        <v>0.4</v>
+      </c>
+      <c r="G2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,8 +502,17 @@
       <c r="D3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.35</v>
+      </c>
+      <c r="G3">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -493,8 +525,17 @@
       <c r="D4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="F4">
+        <v>0.32</v>
+      </c>
+      <c r="G4">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -507,8 +548,17 @@
       <c r="D5">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.65</v>
+      </c>
+      <c r="F5">
+        <v>0.71</v>
+      </c>
+      <c r="G5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -521,8 +571,17 @@
       <c r="D6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <v>0.62</v>
+      </c>
+      <c r="G6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -535,8 +594,17 @@
       <c r="D7">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,10 +617,19 @@
       <c r="D8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>0.95</v>
+      </c>
+      <c r="F8">
+        <v>0.96</v>
+      </c>
+      <c r="G8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>0.90559999999999996</v>
@@ -563,57 +640,86 @@
       <c r="D9">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.95</v>
+      </c>
+      <c r="F9">
+        <v>0.96</v>
+      </c>
+      <c r="G9">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>0.6</v>
+      </c>
       <c r="C10" s="1">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="B12" s="2">
+        <v>0.70479999999999998</v>
       </c>
       <c r="C12" s="2">
         <v>0.69750000000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.9415</v>
-      </c>
-      <c r="C13" s="1">
-        <v>93.98</v>
-      </c>
-      <c r="D13">
-        <v>94.41</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.75419999999999998</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.80020000000000002</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.90010000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
+++ b/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C74276A-FC38-4E61-8B0B-19747953FCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D56A8-150C-4A70-956F-1111CEAE5A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>113dcp0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>113dcpfc0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,10 @@
   </si>
   <si>
     <t>dcp90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcp0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.37909999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="C1" s="1">
         <v>0.37909999999999999</v>
@@ -471,7 +471,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.21679999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="C2" s="1">
         <v>0.21679999999999999</v>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.15759999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="C3" s="1">
         <v>0.15759999999999999</v>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="C4" s="1">
         <v>0.12</v>
@@ -540,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.51629999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="C5" s="1">
         <v>0.51629999999999998</v>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.42349999999999999</v>
+        <v>0.42</v>
       </c>
       <c r="C6" s="1">
         <v>0.42349999999999999</v>
@@ -586,7 +586,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.33289999999999997</v>
+        <v>0.35</v>
       </c>
       <c r="C7" s="1">
         <v>0.33289999999999997</v>
@@ -632,7 +632,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>0.90559999999999996</v>
+        <v>0.92</v>
       </c>
       <c r="C9" s="1">
         <v>0.90559999999999996</v>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C10" s="1">
         <v>0.6</v>
@@ -675,36 +675,36 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>0.70479999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="C12" s="2">
         <v>0.69750000000000001</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3">
         <v>0.75419999999999998</v>

--- a/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
+++ b/052c doc/dcp_model_version/剪枝稀疏度与精度关系.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\310-w\Desktop\TempGit\FG-052D\052c doc\dcp_model_version\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031D56A8-150C-4A70-956F-1111CEAE5A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86673813-3487-485C-8C1C-86B6173D2F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="12" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="612" windowWidth="23016" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -654,9 +654,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.7</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1">
         <v>0.6</v>
       </c>
